--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486249.1225168502</v>
+        <v>482102.4731031365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937609.83403122</v>
+        <v>33937609.83403121</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6615170.30235189</v>
+        <v>6615170.302351891</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C2" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D2" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.262548922260276</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.262548922260276</v>
-      </c>
       <c r="F3" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>2.873653090726851</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -980,64 +980,64 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17.8422975499833</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>41.31500304752735</v>
@@ -1220,10 +1220,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.54795713427877</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H10" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>26.8963105952594</v>
       </c>
       <c r="D11" t="n">
-        <v>290.2964344441172</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>30.83833652624708</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>124.9554984777213</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>199.1695493420036</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>270.3380199136149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>48.59536370223476</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.9392084217139</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>288.1713322303306</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.99314932717905</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>53.19117033386377</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>43.97954181326757</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>197.6313432876045</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>17.75123914303109</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>264.403142717092</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>132.7836240526973</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>35.92536495462116</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>51.72227155475482</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I25" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>351.0662391315809</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>120.2695623740525</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>116.6474033880247</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2766,7 +2766,7 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T28" t="n">
-        <v>239.7800148239768</v>
+        <v>185.591323810394</v>
       </c>
       <c r="U28" t="n">
         <v>275.6021945207021</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>39.5298027268632</v>
       </c>
       <c r="T29" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.0663099356275</v>
+        <v>0.02507500148854433</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4511434453102</v>
+        <v>88.0164052800919</v>
       </c>
       <c r="U31" t="n">
         <v>275.6021945207021</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>285.3442663002903</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.3405725034268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.083298214497</v>
       </c>
       <c r="H34" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7998031327776</v>
+        <v>26.19002492753844</v>
       </c>
       <c r="T34" t="n">
         <v>239.7800148239768</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>164.8122509989809</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.551359884014</v>
+        <v>185.1963629559753</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>354.7919562955818</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>125.7440069163904</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.1509620708187</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T37" t="n">
         <v>239.7800148239768</v>
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>153.0669828423416</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>39.5298027268632</v>
       </c>
       <c r="T38" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>369.6286460204298</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T40" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>214.1791996090041</v>
       </c>
       <c r="W40" t="n">
-        <v>215.1174493559883</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.5249746347825</v>
+        <v>209.1770207319984</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>103.5715611531311</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6021945207021</v>
+        <v>235.960758973166</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>396.872576453704</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4843225154696</v>
+        <v>94.58812191922726</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>77.89034149182598</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.7800148239768</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6021945207021</v>
+        <v>194.2504486393086</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C2" t="n">
-        <v>6.459187765282971</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="D2" t="n">
         <v>3.163683803403904</v>
@@ -4318,40 +4318,40 @@
         <v>3.163683803403904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J2" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K2" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355343</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M2" t="n">
-        <v>6.040770853278583</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N2" t="n">
-        <v>7.931409106423307</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678938</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P2" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143387</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R2" t="n">
         <v>13.05019568904111</v>
@@ -4388,49 +4388,49 @@
         <v>13.05019568904111</v>
       </c>
       <c r="C3" t="n">
-        <v>10.14751579941802</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="D3" t="n">
-        <v>6.852011837538956</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="E3" t="n">
-        <v>3.556507875659889</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2610039137808221</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I3" t="n">
         <v>0.4561956203818616</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9918165824064465</v>
+        <v>3.686119053419536</v>
       </c>
       <c r="K3" t="n">
-        <v>1.907278118958099</v>
+        <v>4.601580589971189</v>
       </c>
       <c r="L3" t="n">
-        <v>3.138229129822361</v>
+        <v>6.632143184885606</v>
       </c>
       <c r="M3" t="n">
-        <v>4.574690899292686</v>
+        <v>8.06860495435593</v>
       </c>
       <c r="N3" t="n">
-        <v>6.049171537475494</v>
+        <v>9.543085592538738</v>
       </c>
       <c r="O3" t="n">
-        <v>8.744604328925602</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P3" t="n">
-        <v>11.97452776196327</v>
+        <v>11.97452776196328</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.69820412233482</v>
+        <v>12.69820412233483</v>
       </c>
       <c r="R3" t="n">
         <v>13.05019568904111</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="C4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="D4" t="n">
-        <v>6.852011837538956</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="E4" t="n">
-        <v>3.556507875659889</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F4" t="n">
-        <v>3.556507875659889</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2610039137808221</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J4" t="n">
-        <v>3.16470400398106</v>
+        <v>3.490927346818497</v>
       </c>
       <c r="K4" t="n">
-        <v>6.394627437018734</v>
+        <v>6.72085077985617</v>
       </c>
       <c r="L4" t="n">
-        <v>7.101256878375861</v>
+        <v>9.93318815143185</v>
       </c>
       <c r="M4" t="n">
-        <v>7.84629854752842</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N4" t="n">
-        <v>8.57362479103854</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O4" t="n">
-        <v>9.245428298083949</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P4" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q4" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="S4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="T4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="U4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="V4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="W4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="X4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.754691727162038</v>
+        <v>9.75469172716204</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4564,25 +4564,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952712</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030268</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176021</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654179</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682885</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
         <v>142.9948879228476</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4676,22 +4676,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="7">
@@ -4704,22 +4704,22 @@
         <v>104.7923756428305</v>
       </c>
       <c r="C7" t="n">
-        <v>104.7923756428305</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D7" t="n">
         <v>63.06004933219679</v>
       </c>
       <c r="E7" t="n">
+        <v>63.06004933219679</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63.06004933219679</v>
+      </c>
+      <c r="G7" t="n">
+        <v>63.06004933219679</v>
+      </c>
+      <c r="H7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="F7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4758,13 +4758,13 @@
         <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X7" t="n">
         <v>104.7923756428305</v>
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4801,25 +4801,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952696</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J8" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4880,28 +4880,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>38.35962772912429</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>132.0096875064238</v>
       </c>
       <c r="Q9" t="n">
         <v>160.929668948206</v>
@@ -4928,7 +4928,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="F10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="G10" t="n">
-        <v>40.06303325820834</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4968,46 +4968,46 @@
         <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>94.27626588252112</v>
+        <v>93.80214871704736</v>
       </c>
       <c r="M10" t="n">
-        <v>103.4420711520643</v>
+        <v>102.9679539865905</v>
       </c>
       <c r="N10" t="n">
-        <v>112.3899340588798</v>
+        <v>111.915816893406</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>120.1806165414288</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>127.2525804285715</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.712709371907</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.712709371907</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D11" t="n">
-        <v>880.4839877111824</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371907</v>
+        <v>1641.648052763359</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5114,16 +5114,16 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
         <v>1066.127311827553</v>
@@ -5217,7 +5217,7 @@
         <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5229,22 +5229,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.723270266458</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V13" t="n">
-        <v>1668.767762136888</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.74135772318</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X13" t="n">
-        <v>1151.349603056593</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.9299323707007</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1110.030088953173</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C14" t="n">
-        <v>1110.030088953173</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D14" t="n">
-        <v>1110.030088953173</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E14" t="n">
-        <v>676.2553441114678</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F14" t="n">
-        <v>248.3879145206756</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
-        <v>248.3879145206756</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228019</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1575.950557669711</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1171.095103080744</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1171.095103080744</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.32965943808</v>
+        <v>1171.095103080744</v>
       </c>
     </row>
     <row r="15">
@@ -5336,31 +5336,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.1897768536844</v>
+        <v>905.7210691049575</v>
       </c>
       <c r="C16" t="n">
-        <v>617.6280653369093</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>451.7500725384321</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L16" t="n">
-        <v>413.3628026016838</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M16" t="n">
-        <v>997.5438780199985</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2205.505779732759</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2262.409185102571</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2020.161961005977</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U16" t="n">
-        <v>1741.77532905472</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V16" t="n">
-        <v>1454.819820925151</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.819820925151</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.428066258563</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.0083955726716</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>919.1237692072363</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C17" t="n">
-        <v>480.9812963906596</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5518,22 +5518,22 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2320.940557925333</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.169306394446</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.169306394446</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1746.552356328272</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1746.552356328272</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X17" t="n">
-        <v>1327.409892907583</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y17" t="n">
-        <v>919.1237692072363</v>
+        <v>1035.877686363847</v>
       </c>
     </row>
     <row r="18">
@@ -5573,46 +5573,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C19" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6420604698892</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E19" t="n">
-        <v>277.6420604698892</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>100.9350064316454</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,19 +5679,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673516</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>682.743955856939</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>246.8341710313835</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>246.8341710313835</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>246.8341710313835</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158423</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,37 +5810,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5849,7 +5849,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683665</v>
+        <v>411.6021539253816</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191038</v>
+        <v>241.8441501761188</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548085996</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>65.13709613787503</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>601.5415720081297</v>
       </c>
       <c r="M22" t="n">
-        <v>718.6204178572111</v>
+        <v>1185.722647426445</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818745</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>917.4784873975498</v>
+        <v>1150.256737740251</v>
       </c>
       <c r="C23" t="n">
-        <v>917.4784873975498</v>
+        <v>1150.256737740251</v>
       </c>
       <c r="D23" t="n">
-        <v>481.5687025719943</v>
+        <v>714.3469529146951</v>
       </c>
       <c r="E23" t="n">
-        <v>47.79395773028945</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="F23" t="n">
-        <v>47.79395773028945</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="G23" t="n">
-        <v>47.79395773028945</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H23" t="n">
-        <v>47.79395773028945</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I23" t="n">
-        <v>119.8847973840886</v>
+        <v>119.8847973840881</v>
       </c>
       <c r="J23" t="n">
-        <v>279.4928753818413</v>
+        <v>279.4928753818407</v>
       </c>
       <c r="K23" t="n">
-        <v>518.7040101744789</v>
+        <v>518.7040101744782</v>
       </c>
       <c r="L23" t="n">
-        <v>815.4665753802151</v>
+        <v>815.4665753802145</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.6721091963</v>
+        <v>1145.672109196299</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.220713768785</v>
+        <v>1481.220713768784</v>
       </c>
       <c r="O23" t="n">
-        <v>1798.069746028392</v>
+        <v>1798.069746028391</v>
       </c>
       <c r="P23" t="n">
-        <v>2068.493064500527</v>
+        <v>2068.493064500526</v>
       </c>
       <c r="Q23" t="n">
-        <v>2271.569714617669</v>
+        <v>2271.569714617668</v>
       </c>
       <c r="R23" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S23" t="n">
-        <v>2349.768792850974</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="T23" t="n">
-        <v>2138.100752564091</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="U23" t="n">
-        <v>1879.031947299088</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.907074518585</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="W23" t="n">
-        <v>1744.907074518585</v>
+        <v>1984.842431925505</v>
       </c>
       <c r="X23" t="n">
-        <v>1325.764611097896</v>
+        <v>1984.842431925505</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.4784873975498</v>
+        <v>1576.556308225158</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.61477182977812</v>
+        <v>79.61477182977811</v>
       </c>
       <c r="H24" t="n">
-        <v>47.79395773028945</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I24" t="n">
-        <v>61.74381980027177</v>
+        <v>82.43638848887583</v>
       </c>
       <c r="J24" t="n">
-        <v>156.8052976309354</v>
+        <v>177.4978663195395</v>
       </c>
       <c r="K24" t="n">
-        <v>319.2805044129577</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7484706172659</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M24" t="n">
-        <v>792.690282709436</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N24" t="n">
         <v>1054.379645964648</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>501.2556142659337</v>
+        <v>728.6752849518246</v>
       </c>
       <c r="C25" t="n">
-        <v>328.6939027491587</v>
+        <v>692.3870375229143</v>
       </c>
       <c r="D25" t="n">
-        <v>162.8159099506813</v>
+        <v>526.509044724437</v>
       </c>
       <c r="E25" t="n">
-        <v>110.5711912085048</v>
+        <v>356.7510409751742</v>
       </c>
       <c r="F25" t="n">
-        <v>110.5711912085048</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="G25" t="n">
-        <v>110.5711912085048</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5711912085048</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I25" t="n">
-        <v>47.79395773028945</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="J25" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K25" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L25" t="n">
-        <v>844.6366670763355</v>
+        <v>330.8487697662073</v>
       </c>
       <c r="M25" t="n">
-        <v>1436.086893988667</v>
+        <v>921.6657355755825</v>
       </c>
       <c r="N25" t="n">
-        <v>1565.172035301572</v>
+        <v>1493.009680046132</v>
       </c>
       <c r="O25" t="n">
-        <v>1684.403056339595</v>
+        <v>2031.909950309936</v>
       </c>
       <c r="P25" t="n">
-        <v>2133.932686603341</v>
+        <v>2133.93268660334</v>
       </c>
       <c r="Q25" t="n">
-        <v>2372.760715827155</v>
+        <v>2372.760715827154</v>
       </c>
       <c r="R25" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S25" t="n">
-        <v>2245.455661127829</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="T25" t="n">
-        <v>2003.253625952094</v>
+        <v>2003.253625952093</v>
       </c>
       <c r="U25" t="n">
-        <v>1724.867570880678</v>
+        <v>1724.867570880677</v>
       </c>
       <c r="V25" t="n">
-        <v>1437.912062751109</v>
+        <v>1437.912062751108</v>
       </c>
       <c r="W25" t="n">
-        <v>1165.8856583374</v>
+        <v>1165.885658337399</v>
       </c>
       <c r="X25" t="n">
-        <v>920.4939036708126</v>
+        <v>920.4939036708117</v>
       </c>
       <c r="Y25" t="n">
-        <v>693.0742329849209</v>
+        <v>920.4939036708117</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>876.9009236435248</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C26" t="n">
-        <v>438.7584508269481</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D26" t="n">
-        <v>438.7584508269481</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E26" t="n">
-        <v>438.7584508269481</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F26" t="n">
-        <v>438.7584508269481</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="G26" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H26" t="n">
         <v>47.79395773028944</v>
       </c>
       <c r="I26" t="n">
-        <v>119.8847973840883</v>
+        <v>119.8847973840884</v>
       </c>
       <c r="J26" t="n">
         <v>279.4928753818411</v>
@@ -6232,19 +6232,19 @@
         <v>518.7040101744786</v>
       </c>
       <c r="L26" t="n">
-        <v>815.4665753802151</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M26" t="n">
         <v>1145.672109196299</v>
       </c>
       <c r="N26" t="n">
-        <v>1481.220713768785</v>
+        <v>1481.220713768784</v>
       </c>
       <c r="O26" t="n">
         <v>1798.069746028392</v>
       </c>
       <c r="P26" t="n">
-        <v>2068.493064500527</v>
+        <v>2068.493064500526</v>
       </c>
       <c r="Q26" t="n">
         <v>2271.569714617669</v>
@@ -6253,25 +6253,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S26" t="n">
-        <v>2389.697886514472</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="T26" t="n">
-        <v>2389.697886514472</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="U26" t="n">
-        <v>2130.629081249469</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="V26" t="n">
-        <v>2130.629081249469</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="W26" t="n">
-        <v>2130.629081249469</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="X26" t="n">
-        <v>1711.486617828779</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="Y26" t="n">
-        <v>1303.200494128433</v>
+        <v>2138.100752564091</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>82.43638848887583</v>
       </c>
       <c r="J27" t="n">
-        <v>156.8052976309354</v>
+        <v>177.4978663195395</v>
       </c>
       <c r="K27" t="n">
-        <v>319.2805044129577</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7484706172659</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M27" t="n">
-        <v>792.690282709436</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N27" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O27" t="n">
         <v>1293.774288176245</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>501.2556142659333</v>
+        <v>555.9916657948046</v>
       </c>
       <c r="C28" t="n">
         <v>383.4299542780295</v>
@@ -6384,22 +6384,22 @@
         <v>47.79395773028944</v>
       </c>
       <c r="J28" t="n">
-        <v>107.4324739775689</v>
+        <v>194.0121591422588</v>
       </c>
       <c r="K28" t="n">
-        <v>205.4368764001267</v>
+        <v>292.0165615648166</v>
       </c>
       <c r="L28" t="n">
-        <v>498.4082835275836</v>
+        <v>417.4284549308972</v>
       </c>
       <c r="M28" t="n">
-        <v>1089.858510439915</v>
+        <v>1008.878681843229</v>
       </c>
       <c r="N28" t="n">
-        <v>1661.202454910464</v>
+        <v>1580.222626313778</v>
       </c>
       <c r="O28" t="n">
-        <v>2200.102725174268</v>
+        <v>1852.595831203926</v>
       </c>
       <c r="P28" t="n">
         <v>2302.125461467673</v>
@@ -6414,22 +6414,22 @@
         <v>2245.455661127828</v>
       </c>
       <c r="T28" t="n">
-        <v>2003.253625952094</v>
+        <v>2057.989677480965</v>
       </c>
       <c r="U28" t="n">
-        <v>1724.867570880678</v>
+        <v>1779.603622409549</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.912062751108</v>
+        <v>1492.648114279979</v>
       </c>
       <c r="W28" t="n">
-        <v>1165.8856583374</v>
+        <v>1220.621709866271</v>
       </c>
       <c r="X28" t="n">
-        <v>920.4939036708122</v>
+        <v>975.2299551996834</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.0742329849204</v>
+        <v>747.8102845137917</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>913.8038601376584</v>
+        <v>1308.915245814776</v>
       </c>
       <c r="C29" t="n">
-        <v>475.6613873210817</v>
+        <v>1308.915245814776</v>
       </c>
       <c r="D29" t="n">
-        <v>475.6613873210817</v>
+        <v>1308.915245814776</v>
       </c>
       <c r="E29" t="n">
-        <v>475.6613873210817</v>
+        <v>875.1405009730711</v>
       </c>
       <c r="F29" t="n">
-        <v>47.79395773028944</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="G29" t="n">
         <v>47.79395773028944</v>
@@ -6460,16 +6460,16 @@
         <v>47.79395773028944</v>
       </c>
       <c r="I29" t="n">
-        <v>119.8847973840888</v>
+        <v>119.8847973840884</v>
       </c>
       <c r="J29" t="n">
-        <v>279.4928753818414</v>
+        <v>279.492875381841</v>
       </c>
       <c r="K29" t="n">
-        <v>518.7040101744789</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L29" t="n">
-        <v>815.4665753802151</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M29" t="n">
         <v>1145.672109196299</v>
@@ -6493,22 +6493,22 @@
         <v>2349.768792850974</v>
       </c>
       <c r="T29" t="n">
-        <v>2138.100752564091</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="U29" t="n">
-        <v>2138.100752564091</v>
+        <v>2090.699987585971</v>
       </c>
       <c r="V29" t="n">
-        <v>2138.100752564091</v>
+        <v>1728.083037519797</v>
       </c>
       <c r="W29" t="n">
-        <v>2138.100752564091</v>
+        <v>1728.083037519797</v>
       </c>
       <c r="X29" t="n">
-        <v>1718.958289143402</v>
+        <v>1308.940574099108</v>
       </c>
       <c r="Y29" t="n">
-        <v>1340.103430622566</v>
+        <v>1308.915245814776</v>
       </c>
     </row>
     <row r="30">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.6987198330484</v>
+        <v>926.578593976495</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1370083162733</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="D31" t="n">
-        <v>394.259015517796</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="E31" t="n">
-        <v>224.5010117685332</v>
+        <v>584.2588787104571</v>
       </c>
       <c r="F31" t="n">
-        <v>47.79395773028944</v>
+        <v>407.5518246722133</v>
       </c>
       <c r="G31" t="n">
-        <v>47.79395773028944</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="H31" t="n">
-        <v>47.79395773028944</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I31" t="n">
         <v>47.79395773028944</v>
       </c>
       <c r="J31" t="n">
-        <v>107.4324739775689</v>
+        <v>194.0121591422588</v>
       </c>
       <c r="K31" t="n">
-        <v>205.4368764001267</v>
+        <v>566.7750161359521</v>
       </c>
       <c r="L31" t="n">
-        <v>749.0586515341683</v>
+        <v>1110.396791269994</v>
       </c>
       <c r="M31" t="n">
-        <v>1340.5088784465</v>
+        <v>1436.086893988667</v>
       </c>
       <c r="N31" t="n">
-        <v>1911.852822917049</v>
+        <v>1565.172035301571</v>
       </c>
       <c r="O31" t="n">
-        <v>2200.102725174268</v>
+        <v>1684.403056339594</v>
       </c>
       <c r="P31" t="n">
-        <v>2302.125461467673</v>
+        <v>2133.93268660334</v>
       </c>
       <c r="Q31" t="n">
         <v>2372.760715827154</v>
@@ -6648,25 +6648,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S31" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="T31" t="n">
-        <v>2234.696731519209</v>
+        <v>2156.550201248947</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.310676447793</v>
+        <v>1878.164146177531</v>
       </c>
       <c r="V31" t="n">
-        <v>1669.355168318223</v>
+        <v>1591.208638047961</v>
       </c>
       <c r="W31" t="n">
-        <v>1397.328763904515</v>
+        <v>1591.208638047961</v>
       </c>
       <c r="X31" t="n">
-        <v>1151.937009237927</v>
+        <v>1345.816883381374</v>
       </c>
       <c r="Y31" t="n">
-        <v>924.5173385520354</v>
+        <v>1118.397212695482</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>913.8038601376584</v>
+        <v>1590.805415682633</v>
       </c>
       <c r="C32" t="n">
-        <v>475.6613873210817</v>
+        <v>1152.662942866056</v>
       </c>
       <c r="D32" t="n">
-        <v>475.6613873210817</v>
+        <v>716.7531580405007</v>
       </c>
       <c r="E32" t="n">
-        <v>475.6613873210817</v>
+        <v>716.7531580405007</v>
       </c>
       <c r="F32" t="n">
-        <v>47.79395773028943</v>
+        <v>716.7531580405007</v>
       </c>
       <c r="G32" t="n">
-        <v>47.79395773028943</v>
+        <v>317.2740443885113</v>
       </c>
       <c r="H32" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="I32" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840883</v>
       </c>
       <c r="J32" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818411</v>
       </c>
       <c r="K32" t="n">
-        <v>518.7040101744782</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L32" t="n">
-        <v>815.4665753802144</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M32" t="n">
         <v>1145.672109196299</v>
       </c>
       <c r="N32" t="n">
-        <v>1481.220713768784</v>
+        <v>1481.220713768785</v>
       </c>
       <c r="O32" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P32" t="n">
-        <v>2068.493064500526</v>
+        <v>2068.493064500527</v>
       </c>
       <c r="Q32" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R32" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S32" t="n">
-        <v>2389.697886514472</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="T32" t="n">
-        <v>2389.697886514472</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="U32" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="V32" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="W32" t="n">
-        <v>1984.842431925505</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="X32" t="n">
-        <v>1565.699968504815</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="Y32" t="n">
-        <v>1340.103430622566</v>
+        <v>1879.031947299088</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.61477182977811</v>
       </c>
       <c r="H33" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="I33" t="n">
         <v>82.43638848887583</v>
@@ -6800,7 +6800,7 @@
         <v>1506.602162644127</v>
       </c>
       <c r="Q33" t="n">
-        <v>1635.039526312649</v>
+        <v>1614.346957624045</v>
       </c>
       <c r="R33" t="n">
         <v>1676.818072250612</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>754.0168824597199</v>
+        <v>897.4293240901161</v>
       </c>
       <c r="C34" t="n">
-        <v>754.0168824597199</v>
+        <v>724.867612573341</v>
       </c>
       <c r="D34" t="n">
-        <v>754.0168824597199</v>
+        <v>558.9896197748637</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2588787104571</v>
+        <v>389.2316160256009</v>
       </c>
       <c r="F34" t="n">
-        <v>407.5518246722133</v>
+        <v>212.5245619873571</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8212204151457</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H34" t="n">
-        <v>110.5711912085047</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="I34" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="J34" t="n">
         <v>107.4324739775689</v>
@@ -6864,19 +6864,19 @@
         <v>205.4368764001267</v>
       </c>
       <c r="L34" t="n">
-        <v>498.4082835275833</v>
+        <v>749.0586515341685</v>
       </c>
       <c r="M34" t="n">
-        <v>1089.858510439915</v>
+        <v>1340.5088784465</v>
       </c>
       <c r="N34" t="n">
-        <v>1661.202454910464</v>
+        <v>1911.852822917049</v>
       </c>
       <c r="O34" t="n">
-        <v>2200.102725174268</v>
+        <v>2031.083843955072</v>
       </c>
       <c r="P34" t="n">
-        <v>2302.125461467672</v>
+        <v>2133.93268660334</v>
       </c>
       <c r="Q34" t="n">
         <v>2372.760715827154</v>
@@ -6885,25 +6885,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S34" t="n">
-        <v>2245.455661127828</v>
+        <v>2363.243315880595</v>
       </c>
       <c r="T34" t="n">
-        <v>2003.253625952093</v>
+        <v>2121.041280704861</v>
       </c>
       <c r="U34" t="n">
-        <v>1724.867570880677</v>
+        <v>2121.041280704861</v>
       </c>
       <c r="V34" t="n">
-        <v>1437.912062751108</v>
+        <v>1834.085772575291</v>
       </c>
       <c r="W34" t="n">
-        <v>1165.885658337399</v>
+        <v>1562.059368161583</v>
       </c>
       <c r="X34" t="n">
-        <v>920.4939036708117</v>
+        <v>1316.667613494995</v>
       </c>
       <c r="Y34" t="n">
-        <v>754.0168824597199</v>
+        <v>1089.247942809103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>753.1838292140668</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C35" t="n">
-        <v>753.1838292140668</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D35" t="n">
-        <v>317.2740443885113</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E35" t="n">
-        <v>317.2740443885113</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F35" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="G35" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H35" t="n">
         <v>47.79395773028944</v>
@@ -6937,13 +6937,13 @@
         <v>119.8847973840883</v>
       </c>
       <c r="J35" t="n">
-        <v>279.4928753818409</v>
+        <v>279.4928753818411</v>
       </c>
       <c r="K35" t="n">
-        <v>518.7040101744785</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L35" t="n">
-        <v>815.4665753802147</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M35" t="n">
         <v>1145.672109196299</v>
@@ -6955,7 +6955,7 @@
         <v>1798.069746028392</v>
       </c>
       <c r="P35" t="n">
-        <v>2068.493064500526</v>
+        <v>2068.493064500527</v>
       </c>
       <c r="Q35" t="n">
         <v>2271.569714617669</v>
@@ -6964,25 +6964,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S35" t="n">
-        <v>2349.768792850974</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="T35" t="n">
-        <v>2138.100752564091</v>
+        <v>2202.630853225608</v>
       </c>
       <c r="U35" t="n">
-        <v>1879.031947299088</v>
+        <v>2202.630853225608</v>
       </c>
       <c r="V35" t="n">
-        <v>1516.414997232914</v>
+        <v>2202.630853225608</v>
       </c>
       <c r="W35" t="n">
-        <v>1111.559542643947</v>
+        <v>2202.630853225608</v>
       </c>
       <c r="X35" t="n">
-        <v>753.1838292140668</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="Y35" t="n">
-        <v>753.1838292140668</v>
+        <v>1783.488389804919</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1314.466856864849</v>
       </c>
       <c r="P36" t="n">
-        <v>1506.602162644127</v>
+        <v>1485.909593955523</v>
       </c>
       <c r="Q36" t="n">
-        <v>1635.039526312649</v>
+        <v>1614.346957624045</v>
       </c>
       <c r="R36" t="n">
         <v>1676.818072250612</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>645.4978396525771</v>
+        <v>501.2556142659333</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9361281358021</v>
+        <v>328.6939027491582</v>
       </c>
       <c r="D37" t="n">
-        <v>307.0581353373248</v>
+        <v>328.6939027491582</v>
       </c>
       <c r="E37" t="n">
-        <v>180.0439869369304</v>
+        <v>328.6939027491582</v>
       </c>
       <c r="F37" t="n">
-        <v>180.0439869369304</v>
+        <v>151.9868487109144</v>
       </c>
       <c r="G37" t="n">
-        <v>180.0439869369304</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H37" t="n">
         <v>47.79395773028944</v>
@@ -7104,16 +7104,16 @@
         <v>1110.396791269994</v>
       </c>
       <c r="M37" t="n">
-        <v>1436.086893988667</v>
+        <v>1242.626048779553</v>
       </c>
       <c r="N37" t="n">
-        <v>1565.172035301571</v>
+        <v>1371.711190092457</v>
       </c>
       <c r="O37" t="n">
-        <v>1684.403056339594</v>
+        <v>1852.595831203926</v>
       </c>
       <c r="P37" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467673</v>
       </c>
       <c r="Q37" t="n">
         <v>2372.760715827154</v>
@@ -7122,25 +7122,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S37" t="n">
-        <v>2389.697886514472</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="T37" t="n">
-        <v>2147.495851338738</v>
+        <v>2003.253625952094</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.109796267322</v>
+        <v>1724.867570880678</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.154288137752</v>
+        <v>1437.912062751108</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.127883724044</v>
+        <v>1165.8856583374</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.736129057456</v>
+        <v>920.4939036708122</v>
       </c>
       <c r="Y37" t="n">
-        <v>837.3164583715643</v>
+        <v>693.0742329849204</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.7531580405007</v>
+        <v>1504.326758945377</v>
       </c>
       <c r="C38" t="n">
-        <v>716.7531580405007</v>
+        <v>1066.184286128801</v>
       </c>
       <c r="D38" t="n">
-        <v>716.7531580405007</v>
+        <v>630.274501303245</v>
       </c>
       <c r="E38" t="n">
-        <v>716.7531580405007</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F38" t="n">
-        <v>716.7531580405007</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="G38" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H38" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="I38" t="n">
-        <v>119.8847973840883</v>
+        <v>119.8847973840884</v>
       </c>
       <c r="J38" t="n">
-        <v>279.4928753818409</v>
+        <v>279.492875381841</v>
       </c>
       <c r="K38" t="n">
-        <v>518.7040101744784</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L38" t="n">
-        <v>815.4665753802146</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M38" t="n">
         <v>1145.672109196299</v>
@@ -7195,31 +7195,31 @@
         <v>2068.493064500526</v>
       </c>
       <c r="Q38" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R38" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S38" t="n">
-        <v>2349.768792850973</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="T38" t="n">
-        <v>2138.10075256409</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="U38" t="n">
-        <v>1879.031947299087</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="V38" t="n">
-        <v>1516.414997232913</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="W38" t="n">
-        <v>1143.052728525408</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="X38" t="n">
-        <v>1143.052728525408</v>
+        <v>1930.626329430285</v>
       </c>
       <c r="Y38" t="n">
-        <v>1143.052728525408</v>
+        <v>1930.626329430285</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>79.61477182977811</v>
       </c>
       <c r="H39" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="I39" t="n">
         <v>82.43638848887583</v>
       </c>
       <c r="J39" t="n">
-        <v>177.4978663195395</v>
+        <v>156.8052976309354</v>
       </c>
       <c r="K39" t="n">
-        <v>339.9730731015617</v>
+        <v>319.2805044129577</v>
       </c>
       <c r="L39" t="n">
-        <v>558.4410393058699</v>
+        <v>537.7484706172659</v>
       </c>
       <c r="M39" t="n">
-        <v>813.38285139804</v>
+        <v>792.690282709436</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.072214653252</v>
+        <v>1054.379645964648</v>
       </c>
       <c r="O39" t="n">
-        <v>1314.466856864849</v>
+        <v>1293.774288176245</v>
       </c>
       <c r="P39" t="n">
         <v>1485.909593955523</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.9916657948046</v>
+        <v>1092.456586774972</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4299542780295</v>
+        <v>919.8948752581972</v>
       </c>
       <c r="D40" t="n">
-        <v>217.5519614795522</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="E40" t="n">
-        <v>47.79395773028943</v>
+        <v>584.2588787104571</v>
       </c>
       <c r="F40" t="n">
-        <v>47.79395773028943</v>
+        <v>407.5518246722133</v>
       </c>
       <c r="G40" t="n">
-        <v>47.79395773028943</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="H40" t="n">
-        <v>47.79395773028943</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I40" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="J40" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K40" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L40" t="n">
-        <v>1110.396791269994</v>
+        <v>330.8487697662073</v>
       </c>
       <c r="M40" t="n">
-        <v>1701.847018182326</v>
+        <v>921.665735575583</v>
       </c>
       <c r="N40" t="n">
-        <v>1830.93215949523</v>
+        <v>1493.009680046132</v>
       </c>
       <c r="O40" t="n">
-        <v>1950.163180533253</v>
+        <v>2031.909950309936</v>
       </c>
       <c r="P40" t="n">
         <v>2133.93268660334</v>
@@ -7362,22 +7362,22 @@
         <v>2245.455661127828</v>
       </c>
       <c r="T40" t="n">
-        <v>2003.253625952093</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="U40" t="n">
-        <v>1724.867570880677</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="V40" t="n">
-        <v>1437.912062751108</v>
+        <v>2029.113035260147</v>
       </c>
       <c r="W40" t="n">
-        <v>1220.621709866271</v>
+        <v>1757.086630846439</v>
       </c>
       <c r="X40" t="n">
-        <v>975.2299551996834</v>
+        <v>1511.694876179851</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.8102845137917</v>
+        <v>1284.275205493959</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.620960214126</v>
+        <v>1311.050285798627</v>
       </c>
       <c r="C41" t="n">
-        <v>917.4784873975498</v>
+        <v>1311.050285798627</v>
       </c>
       <c r="D41" t="n">
-        <v>481.5687025719943</v>
+        <v>875.1405009730711</v>
       </c>
       <c r="E41" t="n">
-        <v>47.79395773028944</v>
+        <v>875.1405009730711</v>
       </c>
       <c r="F41" t="n">
-        <v>47.79395773028944</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="G41" t="n">
         <v>47.79395773028944</v>
@@ -7408,7 +7408,7 @@
         <v>47.79395773028944</v>
       </c>
       <c r="I41" t="n">
-        <v>119.8847973840883</v>
+        <v>119.8847973840884</v>
       </c>
       <c r="J41" t="n">
         <v>279.4928753818411</v>
@@ -7417,19 +7417,19 @@
         <v>518.7040101744786</v>
       </c>
       <c r="L41" t="n">
-        <v>815.4665753802151</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M41" t="n">
         <v>1145.672109196299</v>
       </c>
       <c r="N41" t="n">
-        <v>1481.220713768785</v>
+        <v>1481.220713768784</v>
       </c>
       <c r="O41" t="n">
         <v>1798.069746028392</v>
       </c>
       <c r="P41" t="n">
-        <v>2068.493064500527</v>
+        <v>2068.493064500526</v>
       </c>
       <c r="Q41" t="n">
         <v>2271.569714617669</v>
@@ -7444,19 +7444,19 @@
         <v>2349.768792850974</v>
       </c>
       <c r="U41" t="n">
-        <v>2090.699987585971</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="V41" t="n">
-        <v>2090.699987585971</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="W41" t="n">
-        <v>2090.699987585971</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="X41" t="n">
-        <v>2090.699987585971</v>
+        <v>1930.626329430285</v>
       </c>
       <c r="Y41" t="n">
-        <v>1682.413863885624</v>
+        <v>1522.340205729938</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>47.79395773028944</v>
       </c>
       <c r="I42" t="n">
-        <v>61.74381980027177</v>
+        <v>82.43638848887583</v>
       </c>
       <c r="J42" t="n">
-        <v>156.8052976309354</v>
+        <v>177.4978663195395</v>
       </c>
       <c r="K42" t="n">
-        <v>319.2805044129577</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L42" t="n">
-        <v>537.7484706172659</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M42" t="n">
-        <v>792.690282709436</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O42" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864849</v>
       </c>
       <c r="P42" t="n">
-        <v>1485.909593955523</v>
+        <v>1506.602162644127</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.346957624045</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.6987198330484</v>
+        <v>783.4995035300876</v>
       </c>
       <c r="C43" t="n">
-        <v>560.1370083162733</v>
+        <v>610.9377920133126</v>
       </c>
       <c r="D43" t="n">
-        <v>394.259015517796</v>
+        <v>445.0597992148352</v>
       </c>
       <c r="E43" t="n">
-        <v>224.5010117685332</v>
+        <v>275.3017954655725</v>
       </c>
       <c r="F43" t="n">
-        <v>47.79395773028944</v>
+        <v>275.3017954655725</v>
       </c>
       <c r="G43" t="n">
-        <v>47.79395773028944</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="H43" t="n">
-        <v>47.79395773028944</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I43" t="n">
         <v>47.79395773028944</v>
       </c>
       <c r="J43" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K43" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L43" t="n">
-        <v>1110.396791269994</v>
+        <v>610.1223589600145</v>
       </c>
       <c r="M43" t="n">
-        <v>1701.847018182326</v>
+        <v>742.3516164695734</v>
       </c>
       <c r="N43" t="n">
-        <v>1912.678929271913</v>
+        <v>1313.695560940122</v>
       </c>
       <c r="O43" t="n">
-        <v>2031.909950309936</v>
+        <v>1852.595831203926</v>
       </c>
       <c r="P43" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467673</v>
       </c>
       <c r="Q43" t="n">
         <v>2372.760715827154</v>
@@ -7596,25 +7596,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S43" t="n">
-        <v>2285.080147975956</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="T43" t="n">
-        <v>2042.878112800222</v>
+        <v>2245.455661127828</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.492057728806</v>
+        <v>2007.111460144832</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.536549599236</v>
+        <v>1720.155952015263</v>
       </c>
       <c r="W43" t="n">
-        <v>1205.510145185528</v>
+        <v>1448.129547601554</v>
       </c>
       <c r="X43" t="n">
-        <v>960.11839051894</v>
+        <v>1202.737792934967</v>
       </c>
       <c r="Y43" t="n">
-        <v>732.6987198330484</v>
+        <v>975.3181222490748</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1981.411762814125</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="C44" t="n">
-        <v>1981.411762814125</v>
+        <v>1440.889474482511</v>
       </c>
       <c r="D44" t="n">
-        <v>1545.50197798857</v>
+        <v>1004.979689656956</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.620587631293</v>
+        <v>571.2049448152507</v>
       </c>
       <c r="F44" t="n">
-        <v>716.7531580405007</v>
+        <v>143.3375152244584</v>
       </c>
       <c r="G44" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028944</v>
       </c>
       <c r="H44" t="n">
         <v>47.79395773028944</v>
       </c>
       <c r="I44" t="n">
-        <v>119.8847973840885</v>
+        <v>119.8847973840883</v>
       </c>
       <c r="J44" t="n">
-        <v>279.492875381841</v>
+        <v>279.4928753818411</v>
       </c>
       <c r="K44" t="n">
         <v>518.7040101744786</v>
@@ -7675,25 +7675,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S44" t="n">
-        <v>2389.697886514472</v>
+        <v>2349.768792850974</v>
       </c>
       <c r="T44" t="n">
-        <v>2389.697886514472</v>
+        <v>2138.100752564091</v>
       </c>
       <c r="U44" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="V44" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="W44" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="X44" t="n">
-        <v>2389.697886514472</v>
+        <v>1879.031947299088</v>
       </c>
       <c r="Y44" t="n">
-        <v>1981.411762814125</v>
+        <v>1879.031947299088</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>82.43638848887583</v>
       </c>
       <c r="J45" t="n">
-        <v>177.4978663195395</v>
+        <v>156.8052976309354</v>
       </c>
       <c r="K45" t="n">
-        <v>339.9730731015617</v>
+        <v>319.2805044129577</v>
       </c>
       <c r="L45" t="n">
-        <v>558.4410393058699</v>
+        <v>537.7484706172659</v>
       </c>
       <c r="M45" t="n">
-        <v>813.38285139804</v>
+        <v>792.690282709436</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.072214653252</v>
+        <v>1054.379645964648</v>
       </c>
       <c r="O45" t="n">
-        <v>1314.466856864849</v>
+        <v>1293.774288176245</v>
       </c>
       <c r="P45" t="n">
-        <v>1506.602162644127</v>
+        <v>1485.909593955523</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.346957624045</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>645.4978396525771</v>
+        <v>727.6713203408533</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9361281358021</v>
+        <v>555.1096088240782</v>
       </c>
       <c r="D46" t="n">
-        <v>394.259015517796</v>
+        <v>389.2316160256009</v>
       </c>
       <c r="E46" t="n">
-        <v>224.5010117685332</v>
+        <v>389.2316160256009</v>
       </c>
       <c r="F46" t="n">
-        <v>47.79395773028944</v>
+        <v>212.5245619873571</v>
       </c>
       <c r="G46" t="n">
         <v>47.79395773028944</v>
@@ -7806,19 +7806,19 @@
         <v>47.79395773028944</v>
       </c>
       <c r="J46" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K46" t="n">
-        <v>566.7750161359522</v>
+        <v>340.566612119285</v>
       </c>
       <c r="L46" t="n">
-        <v>692.1869095020328</v>
+        <v>884.1883872533267</v>
       </c>
       <c r="M46" t="n">
-        <v>1283.637136414365</v>
+        <v>1016.417644762886</v>
       </c>
       <c r="N46" t="n">
-        <v>1412.722277727269</v>
+        <v>1145.50278607579</v>
       </c>
       <c r="O46" t="n">
         <v>1684.403056339594</v>
@@ -7839,19 +7839,19 @@
         <v>2147.495851338738</v>
       </c>
       <c r="U46" t="n">
-        <v>1869.109796267322</v>
+        <v>1951.283276955598</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.154288137752</v>
+        <v>1664.327768826028</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.127883724044</v>
+        <v>1392.30136441232</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.736129057456</v>
+        <v>1146.909609745732</v>
       </c>
       <c r="Y46" t="n">
-        <v>837.3164583715643</v>
+        <v>919.4899390598405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.8076884687375294</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.360172798674228</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.169033317551268</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.593604759203897</v>
+        <v>2.923123287322519</v>
       </c>
       <c r="K4" t="n">
         <v>2.704768336622557</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.53101811133187</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.86212986344088</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>20.2192130101177</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>0.478906227751267</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477704</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>33.44562680252832</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -9087,13 +9087,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.27619576520647</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464593</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>263.8716243249372</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>303.1049632594845</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>153.9896541154574</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>463.859565053306</v>
+        <v>463.2199073735517</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>169.2520341024003</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>463.8595650533059</v>
@@ -10047,10 +10047,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>154.6890745981068</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>463.8595650533058</v>
+        <v>195.4149951607214</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>170.7261426456535</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>169.2520341023999</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>463.8595650533058</v>
+        <v>463.8595650533059</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.8344508634991143</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>195.4149951607214</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>365.3066869428753</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>463.8595650533059</v>
+        <v>463.2199073735522</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>82.57249472392186</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>282.0945345391992</v>
       </c>
       <c r="M43" t="n">
-        <v>463.8595650533059</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.57249472392255</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>136.4946825446044</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>463.8595650533059</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>153.9896541154569</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>406.8647374931515</v>
       </c>
       <c r="D11" t="n">
-        <v>141.2542525331828</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.3808763442455</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23469,10 +23469,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>114.8692533779061</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>67.85478659952506</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>88.65276065189687</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>122.2407306993725</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.04306468909392</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>133.8652425497281</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.068556760171951</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>109.902598249743</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>195.8452100423598</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>197.8763211197131</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>113.2693808714461</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>165.0338546761957</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>266.7852857916396</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V23" t="n">
-        <v>226.2071565128145</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>134.9107294469862</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>116.3381521570153</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.083298214497</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>70.97033564847783</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>275.2147601414171</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>54.18869101358261</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>54.18869101358277</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>266.7852857916396</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.13695252771555</v>
+        <v>404.1781874618546</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.32887137866663</v>
+        <v>151.7636095438849</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>136.6923084797684</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.8626899599163</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>116.6097782052391</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.33322298005191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4843225154696</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>24.35499692803867</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>60.15908249090057</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>42.31641679537968</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.083298214497</v>
+        <v>59.93233614367831</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I37" t="n">
         <v>62.14946114343314</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>276.3700145509462</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>31.1782540226472</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>69.90675343926975</v>
       </c>
       <c r="W40" t="n">
-        <v>54.18869101358308</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.51160014527619</v>
+        <v>212.8595540480603</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>266.7852857916396</v>
@@ -25684,7 +25684,7 @@
         <v>209.551359884014</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I43" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>39.22824197964647</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>39.64143554753608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>32.56442093958373</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>300.8962005962423</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>86.32887137866655</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>130.9275289145745</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>81.3517458813935</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356016.0553202172</v>
+        <v>356016.0553202173</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356016.0553202172</v>
+        <v>356016.0553202173</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359501.7700066292</v>
+        <v>359501.770006629</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359501.770006629</v>
+        <v>359501.7700066291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359501.7700066292</v>
+        <v>359501.7700066291</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359501.770006629</v>
+        <v>359501.7700066291</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359501.770006629</v>
+        <v>359501.7700066291</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>353964.9188419532</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260259</v>
       </c>
       <c r="E2" t="n">
-        <v>212351.7212561034</v>
+        <v>212351.7212561035</v>
       </c>
       <c r="F2" t="n">
-        <v>212351.7212561034</v>
+        <v>212351.7212561035</v>
       </c>
       <c r="G2" t="n">
-        <v>212351.7212561034</v>
+        <v>212351.7212561035</v>
       </c>
       <c r="H2" t="n">
         <v>212351.7212561034</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>3658.813870389761</v>
       </c>
       <c r="C3" t="n">
         <v>39694.34694747527</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559816</v>
+        <v>512485.5095559817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6323.228693835412</v>
+        <v>6323.228693835149</v>
       </c>
       <c r="J3" t="n">
-        <v>853.6263502158678</v>
+        <v>853.626350215868</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311827</v>
+        <v>9793.484013311734</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>298377.325830092</v>
       </c>
       <c r="C4" t="n">
-        <v>294577.6699288963</v>
+        <v>294577.6699288962</v>
       </c>
       <c r="D4" t="n">
-        <v>294577.6699288964</v>
+        <v>294577.6699288962</v>
       </c>
       <c r="E4" t="n">
         <v>18294.04639895361</v>
@@ -26432,19 +26432,19 @@
         <v>18294.04639895362</v>
       </c>
       <c r="G4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="H4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="H4" t="n">
-        <v>18294.04639895362</v>
-      </c>
       <c r="I4" t="n">
-        <v>18517.21235433077</v>
+        <v>18517.21235433076</v>
       </c>
       <c r="J4" t="n">
-        <v>18517.21235433077</v>
+        <v>18517.21235433076</v>
       </c>
       <c r="K4" t="n">
-        <v>18517.21235433077</v>
+        <v>18517.21235433076</v>
       </c>
       <c r="L4" t="n">
         <v>18517.21235433076</v>
@@ -26478,19 +26478,19 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46624.08715147129</v>
+        <v>46624.08715147128</v>
       </c>
       <c r="J5" t="n">
         <v>46624.08715147129</v>
@@ -26499,13 +26499,13 @@
         <v>46624.08715147129</v>
       </c>
       <c r="L5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147129</v>
       </c>
       <c r="M5" t="n">
         <v>46624.08715147129</v>
       </c>
       <c r="N5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147129</v>
       </c>
       <c r="O5" t="n">
         <v>46624.08715147129</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18044.77730762553</v>
+        <v>18015.39018879557</v>
       </c>
       <c r="C6" t="n">
-        <v>-9226.145760556137</v>
+        <v>-9226.145760555904</v>
       </c>
       <c r="D6" t="n">
-        <v>30468.20118691932</v>
+        <v>30468.20118691949</v>
       </c>
       <c r="E6" t="n">
-        <v>-364478.9159084696</v>
+        <v>-365032.7963516916</v>
       </c>
       <c r="F6" t="n">
-        <v>148006.5936475119</v>
+        <v>147452.7132042901</v>
       </c>
       <c r="G6" t="n">
-        <v>148006.5936475119</v>
+        <v>147452.7132042901</v>
       </c>
       <c r="H6" t="n">
-        <v>148006.593647512</v>
+        <v>147452.71320429</v>
       </c>
       <c r="I6" t="n">
-        <v>142938.5901174822</v>
+        <v>142392.3074411532</v>
       </c>
       <c r="J6" t="n">
-        <v>148408.1924611017</v>
+        <v>147861.9097847725</v>
       </c>
       <c r="K6" t="n">
-        <v>139468.3347980058</v>
+        <v>138922.0521216766</v>
       </c>
       <c r="L6" t="n">
-        <v>149261.8188113177</v>
+        <v>148715.5361349884</v>
       </c>
       <c r="M6" t="n">
-        <v>12506.91442820226</v>
+        <v>11960.63175187288</v>
       </c>
       <c r="N6" t="n">
-        <v>149261.8188113177</v>
+        <v>148715.5361349884</v>
       </c>
       <c r="O6" t="n">
-        <v>149261.8188113176</v>
+        <v>148715.5361349883</v>
       </c>
       <c r="P6" t="n">
-        <v>149261.8188113177</v>
+        <v>148715.5361349883</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
         <v>472.5082236904275</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
@@ -26798,19 +26798,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>597.4244716286181</v>
+        <v>597.4244716286179</v>
       </c>
       <c r="J4" t="n">
         <v>597.424471628618</v>
@@ -26819,13 +26819,13 @@
         <v>597.424471628618</v>
       </c>
       <c r="L4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.424471628618</v>
       </c>
       <c r="M4" t="n">
         <v>597.424471628618</v>
       </c>
       <c r="N4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.424471628618</v>
       </c>
       <c r="O4" t="n">
         <v>597.424471628618</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326494</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.806295597206429</v>
+        <v>5.806295597206201</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
         <v>38.05245412526707</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7.342577266683975</v>
+        <v>7.342577266683634</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526742</v>
+        <v>38.05245412526707</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
         <v>38.05245412526707</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,22 +27460,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>102.5182434609973</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>90.876837042652</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>89.91666160405553</v>
+        <v>90.30555743558897</v>
       </c>
       <c r="F3" t="n">
         <v>79.28745107773972</v>
       </c>
       <c r="G3" t="n">
-        <v>84.52551230889576</v>
+        <v>81.26296338663548</v>
       </c>
       <c r="H3" t="n">
-        <v>41.26298946135317</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>160.668012373812</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H4" t="n">
         <v>138.4604679489429</v>
       </c>
       <c r="I4" t="n">
-        <v>87.62897272389382</v>
+        <v>84.36642380163354</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>45.48263858358116</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5685466570983</v>
+        <v>138.1782919728362</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27776,25 +27776,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>150.2181261617868</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
-        <v>137.9780290613614</v>
+        <v>120.1357315113781</v>
       </c>
       <c r="I7" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>64.07689350419679</v>
@@ -27940,10 +27940,10 @@
         <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>101.5877743770993</v>
+        <v>120.1357315113781</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,28 +32308,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>9.815689703455863</v>
       </c>
       <c r="I24" t="n">
-        <v>14.09076976765891</v>
+        <v>34.99235430160242</v>
       </c>
       <c r="J24" t="n">
         <v>96.02169477844812</v>
@@ -32800,7 +32800,7 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228364</v>
       </c>
       <c r="O24" t="n">
         <v>241.812769910704</v>
@@ -33025,7 +33025,7 @@
         <v>34.99235430160242</v>
       </c>
       <c r="J27" t="n">
-        <v>75.12011024450462</v>
+        <v>96.02169477844812</v>
       </c>
       <c r="K27" t="n">
         <v>164.1163704868912</v>
@@ -33040,7 +33040,7 @@
         <v>264.3326901567798</v>
       </c>
       <c r="O27" t="n">
-        <v>241.812769910704</v>
+        <v>220.9111853767606</v>
       </c>
       <c r="P27" t="n">
         <v>194.0760664437154</v>
@@ -33520,10 +33520,10 @@
         <v>194.0760664437154</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.7347107762849</v>
+        <v>108.8331262423417</v>
       </c>
       <c r="R33" t="n">
-        <v>42.20055145248762</v>
+        <v>63.10213598643108</v>
       </c>
       <c r="S33" t="n">
         <v>18.8780408238581</v>
@@ -33754,13 +33754,13 @@
         <v>241.812769910704</v>
       </c>
       <c r="P36" t="n">
-        <v>194.0760664437154</v>
+        <v>173.1744819097721</v>
       </c>
       <c r="Q36" t="n">
         <v>129.7347107762849</v>
       </c>
       <c r="R36" t="n">
-        <v>42.20055145248762</v>
+        <v>63.10213598643108</v>
       </c>
       <c r="S36" t="n">
         <v>18.8780408238581</v>
@@ -33973,7 +33973,7 @@
         <v>34.99235430160242</v>
       </c>
       <c r="J39" t="n">
-        <v>96.02169477844812</v>
+        <v>75.12011024450462</v>
       </c>
       <c r="K39" t="n">
         <v>164.1163704868912</v>
@@ -33991,7 +33991,7 @@
         <v>241.812769910704</v>
       </c>
       <c r="P39" t="n">
-        <v>173.1744819097721</v>
+        <v>194.0760664437154</v>
       </c>
       <c r="Q39" t="n">
         <v>129.7347107762849</v>
@@ -34207,7 +34207,7 @@
         <v>9.815689703455863</v>
       </c>
       <c r="I42" t="n">
-        <v>14.09076976765891</v>
+        <v>34.99235430160242</v>
       </c>
       <c r="J42" t="n">
         <v>96.02169477844812</v>
@@ -34231,7 +34231,7 @@
         <v>194.0760664437154</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.7347107762849</v>
+        <v>108.8331262423417</v>
       </c>
       <c r="R42" t="n">
         <v>63.10213598643108</v>
@@ -34447,7 +34447,7 @@
         <v>34.99235430160242</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844812</v>
+        <v>75.12011024450462</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -34468,7 +34468,7 @@
         <v>194.0760664437154</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.8331262423417</v>
+        <v>129.7347107762849</v>
       </c>
       <c r="R45" t="n">
         <v>63.10213598643108</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K2" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823953</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M2" t="n">
         <v>1.879326147397212</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076395</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P2" t="n">
         <v>1.53908266586976</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397851</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497288</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243384859458851</v>
+        <v>2.051073328196381</v>
       </c>
       <c r="M3" t="n">
-        <v>1.450971484313459</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N3" t="n">
         <v>1.489374382002836</v>
       </c>
       <c r="O3" t="n">
-        <v>2.72265938530314</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P3" t="n">
-        <v>3.262548922260276</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q3" t="n">
         <v>0.7309862225975241</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.933030394141655</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260276</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819471</v>
+        <v>3.244785223813818</v>
       </c>
       <c r="M4" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425468</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559677</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P4" t="n">
         <v>0.5806504625449325</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,7 +34950,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
@@ -34959,7 +34959,7 @@
         <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260764</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
@@ -35196,7 +35196,7 @@
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
-        <v>33.13054140576667</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35269,10 +35269,10 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>29.21210246644671</v>
       </c>
       <c r="R9" t="n">
         <v>4.37408408273069</v>
@@ -35336,7 +35336,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>9.259959196580581</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154682</v>
@@ -35345,13 +35345,13 @@
         <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.945718411146316</v>
+        <v>38.39134521367464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>202.7781168554916</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
@@ -35825,10 +35825,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.7481869072826</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512691</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366647</v>
       </c>
       <c r="M22" t="n">
-        <v>395.7952529497143</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>422.0603989642946</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>161.2202808058107</v>
       </c>
       <c r="K23" t="n">
-        <v>241.6274088814522</v>
+        <v>241.6274088814521</v>
       </c>
       <c r="L23" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744811</v>
       </c>
       <c r="M23" t="n">
-        <v>333.5409432485701</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N23" t="n">
         <v>338.9379844166519</v>
       </c>
       <c r="O23" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P23" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R23" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543474</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.09076976765891</v>
+        <v>34.99235430160243</v>
       </c>
       <c r="J24" t="n">
-        <v>96.02169477844812</v>
+        <v>96.02169477844814</v>
       </c>
       <c r="K24" t="n">
         <v>164.1163704868912</v>
@@ -36445,10 +36445,10 @@
         <v>220.674713337685</v>
       </c>
       <c r="M24" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228364</v>
       </c>
       <c r="O24" t="n">
         <v>241.812769910704</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K25" t="n">
-        <v>376.528138377468</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L25" t="n">
-        <v>280.6683342832156</v>
+        <v>126.6786801677582</v>
       </c>
       <c r="M25" t="n">
-        <v>597.4244716286181</v>
+        <v>596.7848139488638</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3890316291963</v>
+        <v>577.115095424797</v>
       </c>
       <c r="O25" t="n">
-        <v>120.4353747858815</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P25" t="n">
-        <v>454.0703335997437</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q25" t="n">
         <v>241.2404335594083</v>
@@ -36594,28 +36594,28 @@
         <v>72.81902995333175</v>
       </c>
       <c r="J26" t="n">
-        <v>161.2202808058109</v>
+        <v>161.2202808058107</v>
       </c>
       <c r="K26" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L26" t="n">
-        <v>299.7601668744812</v>
+        <v>299.760166874481</v>
       </c>
       <c r="M26" t="n">
         <v>333.5409432485699</v>
       </c>
       <c r="N26" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O26" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P26" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.1279294112546</v>
+        <v>205.1279294112551</v>
       </c>
       <c r="R26" t="n">
         <v>119.3213857543469</v>
@@ -36673,7 +36673,7 @@
         <v>34.99235430160242</v>
       </c>
       <c r="J27" t="n">
-        <v>75.12011024450462</v>
+        <v>96.02169477844814</v>
       </c>
       <c r="K27" t="n">
         <v>164.1163704868912</v>
@@ -36682,13 +36682,13 @@
         <v>220.674713337685</v>
       </c>
       <c r="M27" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N27" t="n">
         <v>264.3326901567798</v>
       </c>
       <c r="O27" t="n">
-        <v>241.812769910704</v>
+        <v>220.9111853767606</v>
       </c>
       <c r="P27" t="n">
         <v>194.0760664437155</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.24092550230252</v>
+        <v>147.6951529413832</v>
       </c>
       <c r="K28" t="n">
         <v>98.99434588137149</v>
       </c>
       <c r="L28" t="n">
-        <v>295.9307142701585</v>
+        <v>126.6786801677582</v>
       </c>
       <c r="M28" t="n">
         <v>597.424471628618</v>
@@ -36767,10 +36767,10 @@
         <v>577.1150954247969</v>
       </c>
       <c r="O28" t="n">
-        <v>544.3437073371758</v>
+        <v>275.1244493839883</v>
       </c>
       <c r="P28" t="n">
-        <v>103.0532689832366</v>
+        <v>454.0703335997437</v>
       </c>
       <c r="Q28" t="n">
         <v>71.34874177725442</v>
@@ -36834,13 +36834,13 @@
         <v>161.2202808058107</v>
       </c>
       <c r="K29" t="n">
-        <v>241.6274088814521</v>
+        <v>241.6274088814522</v>
       </c>
       <c r="L29" t="n">
         <v>299.760166874481</v>
       </c>
       <c r="M29" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485701</v>
       </c>
       <c r="N29" t="n">
         <v>338.9379844166522</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.24092550230252</v>
+        <v>147.6951529413832</v>
       </c>
       <c r="K31" t="n">
-        <v>98.99434588137149</v>
+        <v>376.528138377468</v>
       </c>
       <c r="L31" t="n">
         <v>549.1129041757997</v>
       </c>
       <c r="M31" t="n">
-        <v>597.4244716286179</v>
+        <v>328.9799017360335</v>
       </c>
       <c r="N31" t="n">
-        <v>577.1150954247969</v>
+        <v>130.3890316291963</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1615174315348</v>
+        <v>120.4353747858815</v>
       </c>
       <c r="P31" t="n">
-        <v>103.0532689832366</v>
+        <v>454.0703335997437</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.34874177725442</v>
+        <v>241.2404335594083</v>
       </c>
       <c r="R31" t="n">
         <v>17.10825321951248</v>
@@ -37068,7 +37068,7 @@
         <v>72.81902995333175</v>
       </c>
       <c r="J32" t="n">
-        <v>161.2202808058107</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K32" t="n">
         <v>241.6274088814521</v>
@@ -37077,22 +37077,22 @@
         <v>299.760166874481</v>
       </c>
       <c r="M32" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485701</v>
       </c>
       <c r="N32" t="n">
-        <v>338.9379844166519</v>
+        <v>338.9379844166522</v>
       </c>
       <c r="O32" t="n">
-        <v>320.049527534957</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P32" t="n">
-        <v>273.1548671435701</v>
+        <v>273.1548671435703</v>
       </c>
       <c r="Q32" t="n">
         <v>205.1279294112546</v>
       </c>
       <c r="R32" t="n">
-        <v>119.3213857543474</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.99235430160243</v>
+        <v>34.99235430160242</v>
       </c>
       <c r="J33" t="n">
         <v>96.02169477844814</v>
@@ -37168,10 +37168,10 @@
         <v>194.0760664437155</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.7347107762851</v>
+        <v>108.8331262423417</v>
       </c>
       <c r="R33" t="n">
-        <v>42.20055145248762</v>
+        <v>63.10213598643099</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,22 +37232,22 @@
         <v>98.99434588137149</v>
       </c>
       <c r="L34" t="n">
-        <v>295.9307142701581</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M34" t="n">
-        <v>597.4244716286179</v>
+        <v>597.424471628618</v>
       </c>
       <c r="N34" t="n">
         <v>577.1150954247969</v>
       </c>
       <c r="O34" t="n">
-        <v>544.3437073371758</v>
+        <v>120.4353747858815</v>
       </c>
       <c r="P34" t="n">
-        <v>103.0532689832366</v>
+        <v>103.8877198467358</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.34874177725442</v>
+        <v>241.2404335594083</v>
       </c>
       <c r="R34" t="n">
         <v>17.10825321951248</v>
@@ -37305,28 +37305,28 @@
         <v>72.81902995333175</v>
       </c>
       <c r="J35" t="n">
-        <v>161.2202808058107</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K35" t="n">
-        <v>241.6274088814522</v>
+        <v>241.6274088814521</v>
       </c>
       <c r="L35" t="n">
         <v>299.760166874481</v>
       </c>
       <c r="M35" t="n">
-        <v>333.54094324857</v>
+        <v>333.5409432485699</v>
       </c>
       <c r="N35" t="n">
         <v>338.9379844166522</v>
       </c>
       <c r="O35" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P35" t="n">
-        <v>273.1548671435701</v>
+        <v>273.1548671435703</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R35" t="n">
         <v>119.3213857543469</v>
@@ -37402,13 +37402,13 @@
         <v>241.812769910704</v>
       </c>
       <c r="P36" t="n">
-        <v>194.0760664437155</v>
+        <v>173.1744819097721</v>
       </c>
       <c r="Q36" t="n">
         <v>129.7347107762851</v>
       </c>
       <c r="R36" t="n">
-        <v>42.20055145248762</v>
+        <v>63.10213598643099</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,19 +37472,19 @@
         <v>549.1129041757997</v>
       </c>
       <c r="M37" t="n">
-        <v>328.9799017360335</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N37" t="n">
         <v>130.3890316291963</v>
       </c>
       <c r="O37" t="n">
-        <v>120.4353747858815</v>
+        <v>485.7420617287569</v>
       </c>
       <c r="P37" t="n">
         <v>454.0703335997437</v>
       </c>
       <c r="Q37" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R37" t="n">
         <v>17.10825321951248</v>
@@ -37545,7 +37545,7 @@
         <v>161.2202808058107</v>
       </c>
       <c r="K38" t="n">
-        <v>241.6274088814521</v>
+        <v>241.6274088814522</v>
       </c>
       <c r="L38" t="n">
         <v>299.760166874481</v>
@@ -37554,19 +37554,19 @@
         <v>333.5409432485699</v>
       </c>
       <c r="N38" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O38" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P38" t="n">
-        <v>273.1548671435698</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.1279294112546</v>
+        <v>205.1279294112551</v>
       </c>
       <c r="R38" t="n">
-        <v>119.3213857543474</v>
+        <v>119.3213857543469</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.99235430160243</v>
+        <v>34.99235430160242</v>
       </c>
       <c r="J39" t="n">
-        <v>96.02169477844814</v>
+        <v>75.12011024450462</v>
       </c>
       <c r="K39" t="n">
         <v>164.1163704868912</v>
@@ -37630,7 +37630,7 @@
         <v>220.674713337685</v>
       </c>
       <c r="M39" t="n">
-        <v>257.5169819112829</v>
+        <v>257.516981911283</v>
       </c>
       <c r="N39" t="n">
         <v>264.3326901567798</v>
@@ -37639,7 +37639,7 @@
         <v>241.812769910704</v>
       </c>
       <c r="P39" t="n">
-        <v>173.1744819097721</v>
+        <v>194.0760664437155</v>
       </c>
       <c r="Q39" t="n">
         <v>129.7347107762851</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K40" t="n">
-        <v>376.5281383774681</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L40" t="n">
-        <v>549.1129041757997</v>
+        <v>126.6786801677582</v>
       </c>
       <c r="M40" t="n">
-        <v>597.424471628618</v>
+        <v>596.7848139488644</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3890316291963</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O40" t="n">
-        <v>120.4353747858815</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P40" t="n">
-        <v>185.6257637071587</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q40" t="n">
         <v>241.2404335594083</v>
@@ -37779,28 +37779,28 @@
         <v>72.81902995333175</v>
       </c>
       <c r="J41" t="n">
-        <v>161.2202808058109</v>
+        <v>161.2202808058107</v>
       </c>
       <c r="K41" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L41" t="n">
-        <v>299.7601668744812</v>
+        <v>299.760166874481</v>
       </c>
       <c r="M41" t="n">
         <v>333.5409432485699</v>
       </c>
       <c r="N41" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O41" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P41" t="n">
-        <v>273.1548671435703</v>
+        <v>273.1548671435701</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.1279294112546</v>
+        <v>205.1279294112551</v>
       </c>
       <c r="R41" t="n">
         <v>119.3213857543469</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.09076976765891</v>
+        <v>34.99235430160242</v>
       </c>
       <c r="J42" t="n">
-        <v>96.02169477844812</v>
+        <v>96.02169477844814</v>
       </c>
       <c r="K42" t="n">
         <v>164.1163704868912</v>
@@ -37867,7 +37867,7 @@
         <v>220.674713337685</v>
       </c>
       <c r="M42" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N42" t="n">
         <v>264.3326901567798</v>
@@ -37879,7 +37879,7 @@
         <v>194.0760664437155</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.7347107762851</v>
+        <v>108.8331262423417</v>
       </c>
       <c r="R42" t="n">
         <v>63.10213598643099</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K43" t="n">
-        <v>376.528138377468</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L43" t="n">
-        <v>549.1129041757997</v>
+        <v>408.7732147069574</v>
       </c>
       <c r="M43" t="n">
-        <v>597.424471628618</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N43" t="n">
-        <v>212.9615263531189</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O43" t="n">
-        <v>120.4353747858815</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P43" t="n">
-        <v>103.0532689832366</v>
+        <v>454.0703335997437</v>
       </c>
       <c r="Q43" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R43" t="n">
         <v>17.10825321951248</v>
@@ -38016,22 +38016,22 @@
         <v>72.81902995333175</v>
       </c>
       <c r="J44" t="n">
-        <v>161.2202808058106</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K44" t="n">
-        <v>241.6274088814522</v>
+        <v>241.6274088814521</v>
       </c>
       <c r="L44" t="n">
         <v>299.760166874481</v>
       </c>
       <c r="M44" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485701</v>
       </c>
       <c r="N44" t="n">
         <v>338.9379844166522</v>
       </c>
       <c r="O44" t="n">
-        <v>320.049527534957</v>
+        <v>320.0495275349567</v>
       </c>
       <c r="P44" t="n">
         <v>273.1548671435703</v>
@@ -38095,7 +38095,7 @@
         <v>34.99235430160242</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844814</v>
+        <v>75.12011024450462</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -38104,7 +38104,7 @@
         <v>220.674713337685</v>
       </c>
       <c r="M45" t="n">
-        <v>257.5169819112829</v>
+        <v>257.516981911283</v>
       </c>
       <c r="N45" t="n">
         <v>264.3326901567798</v>
@@ -38116,7 +38116,7 @@
         <v>194.0760664437155</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.8331262423417</v>
+        <v>129.7347107762851</v>
       </c>
       <c r="R45" t="n">
         <v>63.10213598643099</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K46" t="n">
-        <v>376.5281383774681</v>
+        <v>235.4890284259758</v>
       </c>
       <c r="L46" t="n">
-        <v>126.6786801677582</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M46" t="n">
-        <v>597.424471628618</v>
+        <v>133.5649065753121</v>
       </c>
       <c r="N46" t="n">
         <v>130.3890316291963</v>
       </c>
       <c r="O46" t="n">
-        <v>274.4250289013385</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P46" t="n">
         <v>454.0703335997437</v>
